--- a/PRIAMOS .NET/PRIAMOS .NET/Excel/Τράπεζα Πειραιώς.xlsx
+++ b/PRIAMOS .NET/PRIAMOS .NET/Excel/Τράπεζα Πειραιώς.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikos-Priamoservice\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\source\repos\PRIAMOS .NET\PRIAMOS .NET\PRIAMOS .NET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5906D785-1E5B-498C-90A3-7B3ACB043C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BE4F8B-8541-4629-9E6E-16500BD444B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="45" windowWidth="15195" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Λίστα Ενοποιημένων Συναλλαγών" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="67">
   <si>
     <t>Τράπεζα Πειραιώς</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>17/11/2022 11:00:45</t>
+  </si>
+  <si>
+    <t>99999Α1</t>
   </si>
 </sst>
 </file>
@@ -598,29 +601,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="71.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.3046875" customWidth="1"/>
+    <col min="2" max="2" width="71.15234375" customWidth="1"/>
+    <col min="3" max="3" width="25.69140625" customWidth="1"/>
+    <col min="4" max="4" width="58.69140625" customWidth="1"/>
+    <col min="5" max="5" width="7.3828125" customWidth="1"/>
+    <col min="6" max="6" width="9.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -640,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -660,7 +665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -680,7 +685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -700,7 +705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -720,7 +725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -740,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -760,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -780,7 +785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -800,7 +805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -820,7 +825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -840,7 +845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -860,7 +865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -880,7 +885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -900,7 +905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
@@ -920,7 +925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -940,7 +945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
@@ -960,7 +965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -980,7 +985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +1005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +1025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
@@ -1040,7 +1045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +1065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
@@ -1080,7 +1085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1100,7 +1105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1140,7 +1145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>8</v>
       </c>
@@ -1160,7 +1165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +1185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>8</v>
       </c>
@@ -1240,7 +1245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1260,7 +1265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
@@ -1280,7 +1285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>8</v>
       </c>
@@ -1320,7 +1325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -1340,7 +1345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>8</v>
       </c>
@@ -1360,7 +1365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1380,7 +1385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>8</v>
       </c>
@@ -1400,7 +1405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>8</v>
       </c>
@@ -1440,7 +1445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1460,7 +1465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>8</v>
       </c>
@@ -1480,7 +1485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
@@ -1500,7 +1505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>8</v>
       </c>
@@ -1520,7 +1525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1540,7 +1545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>8</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
         <v>8</v>
       </c>
@@ -1600,7 +1605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
@@ -1620,7 +1625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
         <v>8</v>
       </c>
@@ -1640,7 +1645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
@@ -1660,7 +1665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
         <v>8</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
@@ -1700,7 +1705,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="4">
+        <v>61.5</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
         <v>64</v>
       </c>

--- a/PRIAMOS .NET/PRIAMOS .NET/Excel/Τράπεζα Πειραιώς.xlsx
+++ b/PRIAMOS .NET/PRIAMOS .NET/Excel/Τράπεζα Πειραιώς.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\source\repos\PRIAMOS .NET\PRIAMOS .NET\PRIAMOS .NET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BE4F8B-8541-4629-9E6E-16500BD444B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B2EADE-D0FB-44BE-9CAF-CFC92016064A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43240" yWindow="2970" windowWidth="29570" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Λίστα Ενοποιημένων Συναλλαγών" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="68">
   <si>
     <t>Τράπεζα Πειραιώς</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>99999Α1</t>
+  </si>
+  <si>
+    <t>αααα</t>
   </si>
 </sst>
 </file>
@@ -599,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1725,11 +1728,39 @@
         <v>12</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="4">
+        <v>22</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B61" s="7" t="s">
         <v>65</v>
       </c>
     </row>
